--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO699159
+    <t xml:space="preserve"> DEMO377286
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO699159
+    <t xml:space="preserve"> DEMO947043
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO947043
+    <t xml:space="preserve"> DEMO377286
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO377286
+    <t xml:space="preserve"> DEMO804481
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO804481
+    <t xml:space="preserve"> DEMO632207
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO804481
+    <t xml:space="preserve"> DEMO601499
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO804481
+    <t xml:space="preserve"> DEMO878644
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO878644
+    <t xml:space="preserve"> DEMO632207
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO632207
+    <t xml:space="preserve"> DEMO320944
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO632207
+    <t xml:space="preserve"> DEMO348089
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO348089
+    <t xml:space="preserve"> DEMO320944
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO320944
+    <t xml:space="preserve"> DEMO558670
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO320944
+    <t xml:space="preserve"> DEMO798385
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO798385
+    <t xml:space="preserve"> DEMO558670
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO558670
+    <t xml:space="preserve"> DEMO643397
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO643397
+    <t xml:space="preserve"> DEMO837808
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO643397
+    <t xml:space="preserve"> DEMO367509
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO367509
+    <t xml:space="preserve"> DEMO837808
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO837808
+    <t xml:space="preserve"> DEMO335939
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO837808
+    <t xml:space="preserve"> DEMO821508
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO821508
+    <t xml:space="preserve"> DEMO335939
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO335939
+    <t xml:space="preserve"> DEMO545070
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO545070
+    <t xml:space="preserve"> DEMO640298
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO640298
+    <t xml:space="preserve"> DEMO366847
             </t>
   </si>
 </sst>

--- a/download/MarkerExamID.xlsx
+++ b/download/MarkerExamID.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> DEMO366847
+    <t xml:space="preserve"> DEMO432041
             </t>
   </si>
 </sst>
